--- a/data/IBCH_07_18.xlsx
+++ b/data/IBCH_07_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chachou.karakou\Documents\EPFL\SIE\BA\BA5-5\Analyse des Polluants\Data_ENV-300\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2E3596-85A2-41ED-879B-94954E900A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD88CA-152D-41D9-9893-9B3568AA4B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10320" xr2:uid="{9B87997B-74C3-4D76-A192-589803748622}"/>
   </bookViews>
